--- a/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_35.xlsx
+++ b/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_35.xlsx
@@ -512,144 +512,144 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9998605211194652</v>
+        <v>0.9374149209074288</v>
       </c>
       <c r="C2" t="n">
-        <v>0.828914695480186</v>
+        <v>0.7342324589820786</v>
       </c>
       <c r="D2" t="n">
-        <v>0.819965963064253</v>
+        <v>0.6364958828025036</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9993229749154067</v>
+        <v>0.9788437580173196</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0005805845638705941</v>
+        <v>0.2605120625462141</v>
       </c>
       <c r="G2" t="n">
-        <v>1.144048219099387</v>
+        <v>1.777188770533843</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6439713111459198</v>
+        <v>1.30023315003571</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002542646950255641</v>
+        <v>0.1689665745526881</v>
       </c>
       <c r="J2" t="n">
-        <v>0.08391782772782361</v>
+        <v>1.209282580585459</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02409532244794815</v>
+        <v>0.5104038230129297</v>
       </c>
       <c r="L2" t="n">
-        <v>1.008926648354226</v>
+        <v>0.9147777646399031</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02447479969001761</v>
+        <v>0.518442173008746</v>
       </c>
       <c r="N2" t="n">
-        <v>144.9029501864802</v>
+        <v>36.69021222700206</v>
       </c>
       <c r="O2" t="n">
-        <v>286.2381227296966</v>
+        <v>73.65479581522789</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_35_8</t>
+          <t>model_1_35_2</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9998759365329513</v>
+        <v>0.9372898040753491</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8287491366246833</v>
+        <v>0.7339922405575727</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8200049014772871</v>
+        <v>0.6264177420216781</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9994195008396456</v>
+        <v>0.9800616922378445</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0005164174936917827</v>
+        <v>0.2610328646999693</v>
       </c>
       <c r="G3" t="n">
-        <v>1.145155311928462</v>
+        <v>1.778795112244617</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6438320307002756</v>
+        <v>1.336282075244545</v>
       </c>
       <c r="I3" t="n">
-        <v>0.002180132543519485</v>
+        <v>0.1592394134887781</v>
       </c>
       <c r="J3" t="n">
-        <v>0.07906334129845333</v>
+        <v>1.22899974231821</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02272482109262431</v>
+        <v>0.5109137546592079</v>
       </c>
       <c r="L3" t="n">
-        <v>1.007940061891119</v>
+        <v>0.9146073927834542</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02308271430834615</v>
+        <v>0.5189601355687083</v>
       </c>
       <c r="N3" t="n">
-        <v>145.1371900466455</v>
+        <v>36.68621792239162</v>
       </c>
       <c r="O3" t="n">
-        <v>286.472362589862</v>
+        <v>73.65080151061744</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_35_6</t>
+          <t>model_1_35_8</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9998934590711982</v>
+        <v>0.9373507668474301</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8286815074851732</v>
+        <v>0.7338871581118676</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8196534366261408</v>
+        <v>0.6294021054669967</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9995356863955941</v>
+        <v>0.9797330130113977</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0004434794604429714</v>
+        <v>0.2607791055336689</v>
       </c>
       <c r="G4" t="n">
-        <v>1.14560754829577</v>
+        <v>1.779497799042908</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6450892000937227</v>
+        <v>1.325607180243976</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001743784088759379</v>
+        <v>0.16186444505463</v>
       </c>
       <c r="J4" t="n">
-        <v>0.07330937483867248</v>
+        <v>1.223272756946746</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02105895202622798</v>
+        <v>0.5106653557210131</v>
       </c>
       <c r="L4" t="n">
-        <v>1.006818619443315</v>
+        <v>0.9146904059199048</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0213906094694122</v>
+        <v>0.5187078245955449</v>
       </c>
       <c r="N4" t="n">
-        <v>145.4417181394086</v>
+        <v>36.68816313791584</v>
       </c>
       <c r="O4" t="n">
-        <v>286.776890682625</v>
+        <v>73.65274672614166</v>
       </c>
     </row>
     <row r="5">
@@ -659,144 +659,144 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.999887007028693</v>
+        <v>0.9373435515300363</v>
       </c>
       <c r="C5" t="n">
-        <v>0.828681443683594</v>
+        <v>0.7338644545669144</v>
       </c>
       <c r="D5" t="n">
-        <v>0.819613429429478</v>
+        <v>0.6289935303277566</v>
       </c>
       <c r="E5" t="n">
-        <v>0.99948907317818</v>
+        <v>0.9797795174480367</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00047033625961988</v>
+        <v>0.2608091394849468</v>
       </c>
       <c r="G5" t="n">
-        <v>1.145607974937224</v>
+        <v>1.77964961775255</v>
       </c>
       <c r="H5" t="n">
-        <v>0.645232303516435</v>
+        <v>1.32706862982649</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001918845482785277</v>
+        <v>0.1614930324300807</v>
       </c>
       <c r="J5" t="n">
-        <v>0.07591643573543011</v>
+        <v>1.224060725025986</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02168723725189264</v>
+        <v>0.5106947615601189</v>
       </c>
       <c r="L5" t="n">
-        <v>1.007231550163645</v>
+        <v>0.914680580806858</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02202878955932628</v>
+        <v>0.5187376935472215</v>
       </c>
       <c r="N5" t="n">
-        <v>145.3241253461398</v>
+        <v>36.68793281101259</v>
       </c>
       <c r="O5" t="n">
-        <v>286.6592978893562</v>
+        <v>73.65251639923841</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_35_5</t>
+          <t>model_1_35_6</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999018317830681</v>
+        <v>0.9373358784311423</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8286647590719087</v>
+        <v>0.7338417064410334</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8200936892594206</v>
+        <v>0.6285791432081657</v>
       </c>
       <c r="E6" t="n">
-        <v>0.999596757122164</v>
+        <v>0.979826127916702</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0004086278237591861</v>
+        <v>0.2608410789639408</v>
       </c>
       <c r="G6" t="n">
-        <v>1.145719545012389</v>
+        <v>1.779801734575062</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6435144419517952</v>
+        <v>1.328550868525721</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001514425826862671</v>
+        <v>0.1611207729694863</v>
       </c>
       <c r="J6" t="n">
-        <v>0.07005968031689704</v>
+        <v>1.224862581571805</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0202145448565924</v>
+        <v>0.510726031218246</v>
       </c>
       <c r="L6" t="n">
-        <v>1.00628276588364</v>
+        <v>0.9146701323317682</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02053290373095236</v>
+        <v>0.5187694556712058</v>
       </c>
       <c r="N6" t="n">
-        <v>145.6054115651023</v>
+        <v>36.6876878999369</v>
       </c>
       <c r="O6" t="n">
-        <v>286.9405841083187</v>
+        <v>73.65227148816271</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_35_3</t>
+          <t>model_1_35_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999290827534246</v>
+        <v>0.937327680241966</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8285186008842116</v>
+        <v>0.7338165028439873</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8216698037860447</v>
+        <v>0.6281590004412215</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9997900005439954</v>
+        <v>0.9798729470218163</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0002951949321359198</v>
+        <v>0.2608752041452528</v>
       </c>
       <c r="G7" t="n">
-        <v>1.146696905486516</v>
+        <v>1.779970271144562</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6378767716784319</v>
+        <v>1.330053694841803</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0007886775372382526</v>
+        <v>0.1607468472117245</v>
       </c>
       <c r="J7" t="n">
-        <v>0.04810090662727332</v>
+        <v>1.225668492686127</v>
       </c>
       <c r="K7" t="n">
-        <v>0.01718123779405662</v>
+        <v>0.5107594386257123</v>
       </c>
       <c r="L7" t="n">
-        <v>1.004538703780824</v>
+        <v>0.9146589688401239</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01745182511437627</v>
+        <v>0.5188033892119446</v>
       </c>
       <c r="N7" t="n">
-        <v>146.2557492658931</v>
+        <v>36.68742626208916</v>
       </c>
       <c r="O7" t="n">
-        <v>287.5909218091095</v>
+        <v>73.65200985031498</v>
       </c>
     </row>
     <row r="8">
@@ -806,193 +806,193 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999135946005105</v>
+        <v>0.9373190165520487</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8284943155002041</v>
+        <v>0.7337905884776048</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8206699190752729</v>
+        <v>0.6277330799137775</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9996809263611022</v>
+        <v>0.9799198990644448</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0003596647821251667</v>
+        <v>0.2609112669858265</v>
       </c>
       <c r="G8" t="n">
-        <v>1.146859301961198</v>
+        <v>1.780143560631885</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6414533013122162</v>
+        <v>1.331577187872179</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001198318398110695</v>
+        <v>0.1603718597343793</v>
       </c>
       <c r="J8" t="n">
-        <v>0.06435128945728644</v>
+        <v>1.226485363927263</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01896483013699745</v>
+        <v>0.510794740562025</v>
       </c>
       <c r="L8" t="n">
-        <v>1.005529945567325</v>
+        <v>0.9146471714751302</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01926350725378018</v>
+        <v>0.5188392471184653</v>
       </c>
       <c r="N8" t="n">
-        <v>145.8606762421541</v>
+        <v>36.68714980539566</v>
       </c>
       <c r="O8" t="n">
-        <v>287.1958487853705</v>
+        <v>73.65173339362147</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_35_0</t>
+          <t>model_1_35_1</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999354693899151</v>
+        <v>0.9370114010606799</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8284691312233314</v>
+        <v>0.7337848633192442</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8228859513695163</v>
+        <v>0.6177747771466908</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9998938789325023</v>
+        <v>0.9808844452325933</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0002686103872412728</v>
+        <v>0.2621917246810084</v>
       </c>
       <c r="G9" t="n">
-        <v>1.147027709336608</v>
+        <v>1.780181844792205</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6335266822886427</v>
+        <v>1.367197459454477</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0003985500903457198</v>
+        <v>0.152668409274538</v>
       </c>
       <c r="J9" t="n">
-        <v>0.03860950267651458</v>
+        <v>1.246244441859049</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01638933760837432</v>
+        <v>0.5120466040127679</v>
       </c>
       <c r="L9" t="n">
-        <v>1.004129959045436</v>
+        <v>0.9142282908060322</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01664745329237923</v>
+        <v>0.5201108261671531</v>
       </c>
       <c r="N9" t="n">
-        <v>146.4444972056771</v>
+        <v>36.6773585384903</v>
       </c>
       <c r="O9" t="n">
-        <v>287.7796697488935</v>
+        <v>73.64194212671613</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_35_2</t>
+          <t>model_1_35_3</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999328759550281</v>
+        <v>0.9373098051493416</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8284370416292486</v>
+        <v>0.7337627324252892</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8219623986038802</v>
+        <v>0.6273007521637888</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9998308815249178</v>
+        <v>0.9799670073657154</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0002794056291949862</v>
+        <v>0.2609496096955102</v>
       </c>
       <c r="G10" t="n">
-        <v>1.1472422926</v>
+        <v>1.780329834181985</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6368301769806569</v>
+        <v>1.333123599166085</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0006351442283083314</v>
+        <v>0.1599956242807851</v>
       </c>
       <c r="J10" t="n">
-        <v>0.04488483158154929</v>
+        <v>1.227314141207789</v>
       </c>
       <c r="K10" t="n">
-        <v>0.01671543087075491</v>
+        <v>0.5108322715877592</v>
       </c>
       <c r="L10" t="n">
-        <v>1.004295938878201</v>
+        <v>0.9146346282884652</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01697868219766865</v>
+        <v>0.5188773692203376</v>
       </c>
       <c r="N10" t="n">
-        <v>146.3656919278069</v>
+        <v>36.68685591319974</v>
       </c>
       <c r="O10" t="n">
-        <v>287.7008644710234</v>
+        <v>73.65143950142556</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_35_1</t>
+          <t>model_1_35_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999328772163897</v>
+        <v>0.9366112607044211</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8284242022865499</v>
+        <v>0.7330333813355805</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8220739622226159</v>
+        <v>0.6094265740190687</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9998335577103961</v>
+        <v>0.9815211727515818</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0002794003787435769</v>
+        <v>0.263857319596416</v>
       </c>
       <c r="G11" t="n">
-        <v>1.147328149343745</v>
+        <v>1.78520700827722</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6364311203852697</v>
+        <v>1.397058497985352</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0006250935005003884</v>
+        <v>0.1475831172886083</v>
       </c>
       <c r="J11" t="n">
-        <v>0.04496067145722121</v>
+        <v>1.263368983122659</v>
       </c>
       <c r="K11" t="n">
-        <v>0.01671527381599168</v>
+        <v>0.5136704387021079</v>
       </c>
       <c r="L11" t="n">
-        <v>1.00429585815106</v>
+        <v>0.9136834188315521</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01697852266944989</v>
+        <v>0.521760234629611</v>
       </c>
       <c r="N11" t="n">
-        <v>146.3657295111639</v>
+        <v>36.66469355601806</v>
       </c>
       <c r="O11" t="n">
-        <v>287.7009020543803</v>
+        <v>73.62927714424389</v>
       </c>
     </row>
   </sheetData>
